--- a/liuyang/guanda/代码表/dmb_gd.xlsx
+++ b/liuyang/guanda/代码表/dmb_gd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -2693,12 +2693,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3021,8 +3024,8 @@
   <sheetPr/>
   <dimension ref="A2:G935"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" topLeftCell="A838" workbookViewId="0">
-      <selection activeCell="F851" sqref="F851"/>
+    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -16943,7 +16946,7 @@
       <c r="E851" t="s">
         <v>19</v>
       </c>
-      <c r="F851">
+      <c r="F851" s="2">
         <v>9</v>
       </c>
     </row>
